--- a/pz3-4/Таблица методов.xlsx
+++ b/pz3-4/Таблица методов.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Метод</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Время выполнения</t>
   </si>
   <si>
+    <t>Длина конечного отрезка</t>
+  </si>
+  <si>
     <t>Метод половинного деления</t>
   </si>
   <si>
@@ -40,10 +43,13 @@
     <t>Метод Фибоначчи</t>
   </si>
   <si>
+    <t>Метод Ньютона L-BFGS-B</t>
+  </si>
+  <si>
+    <t>[0.]</t>
+  </si>
+  <si>
     <t>Метод Ньютона</t>
-  </si>
-  <si>
-    <t>[0.]</t>
   </si>
 </sst>
 </file>
@@ -134,8 +140,8 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -144,7 +150,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,27 +454,28 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="25.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="29.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="27.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="26.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="27.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="25.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -476,11 +483,14 @@
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -493,11 +503,14 @@
       </c>
       <c r="E2" s="5">
         <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.000762939453125</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -510,11 +523,14 @@
       </c>
       <c r="E3" s="5">
         <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.0009632153658702138</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="6">
         <v>1.002044905423531</v>
@@ -527,23 +543,49 @@
       </c>
       <c r="E4" s="5">
         <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.004085634900844743</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="5">
         <v>4</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.004085634900845</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>51</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>4.440892098500626e-14</v>
       </c>
     </row>
   </sheetData>
